--- a/Take-Away Cahllenge.xlsx
+++ b/Take-Away Cahllenge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgarc609/makers/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA34169-C240-354C-A25D-2A9E30B00C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7CD09-B1C5-0A4F-9728-98EB996DF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>As a customer</t>
   </si>
@@ -199,15 +199,12 @@
     <t>should add dishes</t>
   </si>
   <si>
+    <t>should add item</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>should add quantity to item</t>
-  </si>
-  <si>
-    <t>[item1]</t>
-  </si>
-  <si>
     <t>should report total</t>
   </si>
   <si>
@@ -281,6 +278,12 @@
   </si>
   <si>
     <t>should return body</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8233C2-7CF3-8B49-AC11-10D783D70ACC}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A11" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1053,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1125,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1E408-224E-F24E-B191-584C3663DE84}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1136,63 +1139,88 @@
     <col min="1" max="1" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:7">
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1232,27 +1260,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -1295,27 +1323,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1360,44 +1388,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Take-Away Cahllenge.xlsx
+++ b/Take-Away Cahllenge.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgarc609/makers/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7CD09-B1C5-0A4F-9728-98EB996DF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60DDB0-FB0C-084C-BCEB-5A35469378D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Menu" sheetId="2" r:id="rId2"/>
-    <sheet name="Order" sheetId="3" r:id="rId3"/>
-    <sheet name="Dish" sheetId="5" r:id="rId4"/>
-    <sheet name="Item" sheetId="4" r:id="rId5"/>
+    <sheet name="Order" sheetId="3" r:id="rId2"/>
+    <sheet name="Menu" sheetId="2" r:id="rId3"/>
+    <sheet name="Item" sheetId="4" r:id="rId4"/>
+    <sheet name="Dish" sheetId="5" r:id="rId5"/>
     <sheet name="Text" sheetId="7" r:id="rId6"/>
-    <sheet name="Enhanced" sheetId="9" r:id="rId7"/>
-    <sheet name="List Handler" sheetId="8" r:id="rId8"/>
+    <sheet name="UI" sheetId="10" r:id="rId7"/>
+    <sheet name="Read" sheetId="11" r:id="rId8"/>
+    <sheet name="Write" sheetId="12" r:id="rId9"/>
+    <sheet name="Enhanced" sheetId="9" r:id="rId10"/>
+    <sheet name="List Handler" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
   <si>
     <t>As a customer</t>
   </si>
@@ -166,21 +169,6 @@
     <t>[]</t>
   </si>
   <si>
-    <r>
-      <t>only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> shop keeper</t>
-    </r>
-  </si>
-  <si>
     <t>can be inhereted from list handler</t>
   </si>
   <si>
@@ -205,30 +193,18 @@
     <t>item</t>
   </si>
   <si>
-    <t>should report total</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
     <t>Should add description</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>"Spagetti"</t>
-  </si>
-  <si>
     <t>should add qty</t>
   </si>
   <si>
     <t>qty</t>
   </si>
   <si>
-    <t>"spagetti"</t>
-  </si>
-  <si>
     <t>Should return description</t>
   </si>
   <si>
@@ -253,9 +229,6 @@
     <t>when complete</t>
   </si>
   <si>
-    <t>should send order</t>
-  </si>
-  <si>
     <t>expected time</t>
   </si>
   <si>
@@ -284,13 +257,46 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>should send text</t>
+  </si>
+  <si>
+    <t>should display menu</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>should read user selected dish</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>should write message</t>
+  </si>
+  <si>
+    <t>should read message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +331,19 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +375,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8233C2-7CF3-8B49-AC11-10D783D70ACC}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="69" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1024,416 +1045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0833B861-3229-2742-878B-E71CD2BC2406}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="53.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1E408-224E-F24E-B191-584C3663DE84}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="65.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90683F55-4F81-F044-B349-34C542455D02}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="54.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594C15B-7DAF-824E-A270-D095091DCF9D}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F158C07-8926-B644-A449-F63C48C047C0}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F7FDCF-A159-C544-86B4-EA92856767A4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1448,7 +1060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAC92C-5CE6-F640-B51A-719B66E3E262}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1460,4 +1072,552 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1E408-224E-F24E-B191-584C3663DE84}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="65.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0833B861-3229-2742-878B-E71CD2BC2406}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594C15B-7DAF-824E-A270-D095091DCF9D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90683F55-4F81-F044-B349-34C542455D02}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F158C07-8926-B644-A449-F63C48C047C0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDA49D4-6847-C24C-84A7-54692D01A023}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FBEBAF-24CD-0B4C-BF9F-7FD00B38FB32}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304A56E6-6623-2243-80B7-32607D8EB3DC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="214" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Take-Away Cahllenge.xlsx
+++ b/Take-Away Cahllenge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgarc609/makers/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60DDB0-FB0C-084C-BCEB-5A35469378D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49AB1E-A53B-9345-845A-4D1B77C3A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="11" xr2:uid="{D12C8BC0-32E1-1742-87A3-416B55827D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Write" sheetId="12" r:id="rId9"/>
     <sheet name="Enhanced" sheetId="9" r:id="rId10"/>
     <sheet name="List Handler" sheetId="8" r:id="rId11"/>
+    <sheet name="Database" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>As a customer</t>
   </si>
@@ -290,6 +291,24 @@
   </si>
   <si>
     <t>should read message</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>descrition</t>
+  </si>
+  <si>
+    <t>dish_id</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item_id</t>
   </si>
 </sst>
 </file>
@@ -879,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8233C2-7CF3-8B49-AC11-10D783D70ACC}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="69" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1074,6 +1093,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321379C1-84C5-F342-9D2E-9FD5D45E161C}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1E408-224E-F24E-B191-584C3663DE84}">
   <dimension ref="A1:G4"/>
